--- a/features/backlog/android/private_browser.xlsx
+++ b/features/backlog/android/private_browser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27262D1-1D51-42B8-B89C-FBACCC39B39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF09A7-8B0C-4482-ACAE-53ED927A23F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t xml:space="preserve">Jira Task No: 1419 </t>
   </si>
@@ -115,6 +115,19 @@
   </si>
   <si>
     <t>SYMPBROW-009</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app with valid credentials
+3. find the menu for private browser
+4. click and open the private browser</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app with valid credentials
+3. find the menu for private browser
+4. click and open the private browser
+5. browse sometimes and tap on back button</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1130,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1443,7 +1456,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1498,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
@@ -1527,7 +1540,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1538,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
@@ -1569,7 +1582,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -1580,7 +1593,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
